--- a/5.al_dbma_2020_bpka.xlsx
+++ b/5.al_dbma_2020_bpka.xlsx
@@ -5,42 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAFTAR BARANG MILIK ACEH 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4029AD-77A8-444E-BD3E-B3FDCC0FBED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75909A3-BE5D-4FE2-98B8-0C14761D89B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C97CB979-1101-42BA-A702-C4A73DE26260}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C97CB979-1101-42BA-A702-C4A73DE26260}"/>
   </bookViews>
   <sheets>
     <sheet name="Kerjasama" sheetId="21" r:id="rId1"/>
-    <sheet name="ATB" sheetId="20" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId3"/>
-    <sheet name="RB" sheetId="1" r:id="rId4"/>
-    <sheet name="TDK OPRS" sheetId="4" r:id="rId5"/>
-    <sheet name="Aset Lain-Lain Lainnya" sheetId="15" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId2"/>
+    <sheet name="ATB" sheetId="20" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId4"/>
+    <sheet name="RB" sheetId="1" r:id="rId5"/>
+    <sheet name="TDK OPRS" sheetId="4" r:id="rId6"/>
+    <sheet name="Aset Lain-Lain Lainnya" sheetId="15" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="__10Excel_BuiltIn_Print_Titles_8_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__10Excel_BuiltIn_Print_Titles_8_1" localSheetId="2">#REF!</definedName>
     <definedName name="__10Excel_BuiltIn_Print_Titles_8_1">#REF!</definedName>
-    <definedName name="__11Excel_BuiltIn_Print_Titles_9_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__11Excel_BuiltIn_Print_Titles_9_1" localSheetId="2">#REF!</definedName>
     <definedName name="__11Excel_BuiltIn_Print_Titles_9_1">#REF!</definedName>
-    <definedName name="__1Excel_BuiltIn_Print_Titles_1_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__1Excel_BuiltIn_Print_Titles_1_1" localSheetId="2">#REF!</definedName>
     <definedName name="__1Excel_BuiltIn_Print_Titles_1_1">#REF!</definedName>
     <definedName name="__1Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
     <definedName name="__2Excel_BuiltIn_Print_Titles_13_1">#REF!</definedName>
     <definedName name="__3Excel_BuiltIn_Print_Titles_15_1">#REF!</definedName>
     <definedName name="__4Excel_BuiltIn_Print_Titles_2_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="__5Excel_BuiltIn_Print_Titles_3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__5Excel_BuiltIn_Print_Titles_3_1" localSheetId="2">#REF!</definedName>
     <definedName name="__5Excel_BuiltIn_Print_Titles_3_1">#REF!</definedName>
-    <definedName name="__6Excel_BuiltIn_Print_Titles_4_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__6Excel_BuiltIn_Print_Titles_4_1" localSheetId="2">#REF!</definedName>
     <definedName name="__6Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
-    <definedName name="__7Excel_BuiltIn_Print_Titles_4_1" localSheetId="1">#REF!</definedName>
+    <definedName name="__7Excel_BuiltIn_Print_Titles_4_1" localSheetId="2">#REF!</definedName>
     <definedName name="__7Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
     <definedName name="__7Excel_BuiltIn_Print_Titles_5_1">#REF!</definedName>
     <definedName name="__8Excel_BuiltIn_Print_Titles_6_1">#REF!</definedName>
@@ -60,19 +61,19 @@
     <definedName name="_3Excel_BuiltIn_Print_Titles_15_1">#REF!</definedName>
     <definedName name="_4Excel_BuiltIn_Print_Titles_15_1">#REF!</definedName>
     <definedName name="_4Excel_BuiltIn_Print_Titles_2_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="_5Excel_BuiltIn_Print_Titles_15_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_5Excel_BuiltIn_Print_Titles_15_1" localSheetId="2">#REF!</definedName>
     <definedName name="_5Excel_BuiltIn_Print_Titles_15_1">#REF!</definedName>
     <definedName name="_5Excel_BuiltIn_Print_Titles_2_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="_5Excel_BuiltIn_Print_Titles_3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_5Excel_BuiltIn_Print_Titles_3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_5Excel_BuiltIn_Print_Titles_3_1">#REF!</definedName>
-    <definedName name="_5Excel_BuiltIn_Print_Titles_4_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_5Excel_BuiltIn_Print_Titles_4_1" localSheetId="2">#REF!</definedName>
     <definedName name="_5Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
     <definedName name="_6Excel_BuiltIn_Print_Titles_2_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="_6Excel_BuiltIn_Print_Titles_3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_6Excel_BuiltIn_Print_Titles_3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_6Excel_BuiltIn_Print_Titles_3_1">#REF!</definedName>
-    <definedName name="_6Excel_BuiltIn_Print_Titles_4_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_6Excel_BuiltIn_Print_Titles_4_1" localSheetId="2">#REF!</definedName>
     <definedName name="_6Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
-    <definedName name="_7Excel_BuiltIn_Print_Titles_3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_7Excel_BuiltIn_Print_Titles_3_1" localSheetId="2">#REF!</definedName>
     <definedName name="_7Excel_BuiltIn_Print_Titles_3_1">#REF!</definedName>
     <definedName name="_7Excel_BuiltIn_Print_Titles_4_1">#REF!</definedName>
     <definedName name="_7Excel_BuiltIn_Print_Titles_5_1">#REF!</definedName>
@@ -82,16 +83,16 @@
     <definedName name="_9Excel_BuiltIn_Print_Titles_5_1">#REF!</definedName>
     <definedName name="_9Excel_BuiltIn_Print_Titles_6_1">#REF!</definedName>
     <definedName name="_9Excel_BuiltIn_Print_Titles_7_1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Aset Lain-Lain Lainnya'!$A$1:$AU$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ATB!$A$1:$S$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Aset Lain-Lain Lainnya'!$A$1:$AU$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ATB!$A$1:$S$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kerjasama!$A$1:$AT$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RB!$A$1:$AP$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TDK OPRS'!$A$1:$AU$1</definedName>
-    <definedName name="a" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RB!$A$1:$AP$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TDK OPRS'!$A$1:$AU$1</definedName>
+    <definedName name="a" localSheetId="2">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
-    <definedName name="a_12" localSheetId="1">#REF!</definedName>
+    <definedName name="a_12" localSheetId="2">#REF!</definedName>
     <definedName name="a_12">#REF!</definedName>
-    <definedName name="aaaaa" localSheetId="1">#REF!</definedName>
+    <definedName name="aaaaa" localSheetId="2">#REF!</definedName>
     <definedName name="aaaaa">#REF!</definedName>
     <definedName name="adas">#REF!</definedName>
     <definedName name="afdsf">#REF!</definedName>
@@ -102,11 +103,11 @@
     <definedName name="ASET">#REF!</definedName>
     <definedName name="atk">[1]nama_barang!$B$8:$C$206</definedName>
     <definedName name="atkcetak">[1]nama_barang!$B$8:$C$343</definedName>
-    <definedName name="aw" localSheetId="1">#REF!</definedName>
+    <definedName name="aw" localSheetId="2">#REF!</definedName>
     <definedName name="aw">#REF!</definedName>
-    <definedName name="B" localSheetId="1">#REF!</definedName>
+    <definedName name="B" localSheetId="2">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
-    <definedName name="Bangunan_Gedung" localSheetId="1">#REF!</definedName>
+    <definedName name="Bangunan_Gedung" localSheetId="2">#REF!</definedName>
     <definedName name="Bangunan_Gedung">#REF!</definedName>
     <definedName name="BuiltIn">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
@@ -150,39 +151,39 @@
     <definedName name="Excel_BuiltIn_Print_Titles_14">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_15">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_16">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_2" localSheetId="1">"$#REF!.$A$12:$IV$12"</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_2" localSheetId="2">"$#REF!.$A$12:$IV$12"</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_3" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_1" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_3_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_3_1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_4" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_4" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_4">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_4_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_5" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_5" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_5">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_5_1">"$#REF!.$A$12:$IV$12"</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_5_1_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_6" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_6_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_7" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_8" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_8_1" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_8_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_8_1">"$#REF!.$A$12:$IV$12"</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_8_1_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_9" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_9" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_9_1" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles_9_1" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_9_1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles_9_1_1">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles1_2" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_BuiltIn_Print_Titles1_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles1_2">#REF!</definedName>
-    <definedName name="Excel_Buku_Perpustakaan" localSheetId="1">#REF!</definedName>
+    <definedName name="Excel_Buku_Perpustakaan" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_Buku_Perpustakaan">#REF!</definedName>
-    <definedName name="excel_kedokteran" localSheetId="1">#REF!</definedName>
+    <definedName name="excel_kedokteran" localSheetId="2">#REF!</definedName>
     <definedName name="excel_kedokteran">#REF!</definedName>
     <definedName name="excel_kedokteran_1">#REF!</definedName>
     <definedName name="Excel1">#REF!</definedName>
@@ -193,13 +194,13 @@
     <definedName name="gffghfghfhjfghgh">#REF!</definedName>
     <definedName name="GGGVHJH">#REF!</definedName>
     <definedName name="GHJTYFJ">#REF!</definedName>
-    <definedName name="hargab" localSheetId="1">[2]nama_barang!$B$8:$C$352</definedName>
+    <definedName name="hargab" localSheetId="2">[2]nama_barang!$B$8:$C$352</definedName>
     <definedName name="hargab">[3]nama_barang!$B$8:$C$352</definedName>
-    <definedName name="jhouhlkj" localSheetId="1">#REF!</definedName>
+    <definedName name="jhouhlkj" localSheetId="2">#REF!</definedName>
     <definedName name="jhouhlkj">#REF!</definedName>
-    <definedName name="juhhj" localSheetId="1">#REF!</definedName>
+    <definedName name="juhhj" localSheetId="2">#REF!</definedName>
     <definedName name="juhhj">#REF!</definedName>
-    <definedName name="kib" localSheetId="1">#REF!</definedName>
+    <definedName name="kib" localSheetId="2">#REF!</definedName>
     <definedName name="kib">#REF!</definedName>
     <definedName name="KIB_121">#REF!</definedName>
     <definedName name="KIB_2">#REF!</definedName>
@@ -218,11 +219,11 @@
     <definedName name="rida">#REF!</definedName>
     <definedName name="s">#REF!</definedName>
     <definedName name="sadfsdfsdfsdf">"$#REF!.$A$12:$IV$12"</definedName>
-    <definedName name="SDE" localSheetId="1">#REF!</definedName>
+    <definedName name="SDE" localSheetId="2">#REF!</definedName>
     <definedName name="SDE">#REF!</definedName>
-    <definedName name="sdfsdfsd" localSheetId="1">#REF!</definedName>
+    <definedName name="sdfsdfsd" localSheetId="2">#REF!</definedName>
     <definedName name="sdfsdfsd">#REF!</definedName>
-    <definedName name="ssss" localSheetId="1">#REF!</definedName>
+    <definedName name="ssss" localSheetId="2">#REF!</definedName>
     <definedName name="ssss">#REF!</definedName>
     <definedName name="SSSSAAJHSJJKSHSKJS">#REF!</definedName>
     <definedName name="terlalu">#REF!</definedName>
@@ -237,7 +238,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6489" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6490" uniqueCount="741">
   <si>
     <t>No.</t>
   </si>
@@ -2495,6 +2496,9 @@
   </si>
   <si>
     <t>Sum of Harga (Rp)</t>
+  </si>
+  <si>
+    <t>I dra</t>
   </si>
 </sst>
 </file>
@@ -2508,9 +2512,9 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -3264,7 +3268,7 @@
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3277,7 +3281,7 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3512,7 +3516,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4069,19 +4073,7 @@
     <cellStyle name="Warning Text 4 2" xfId="402" xr:uid="{F97FA5F5-B2F4-47E2-AA14-E2045B25D18C}"/>
     <cellStyle name="Warning Text 5" xfId="403" xr:uid="{750C983A-7145-47F5-9132-86A183140C70}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
@@ -17369,7 +17361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69A70D55-CF33-469E-8B78-1151DE88163A}" name="PivotTable10" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69A70D55-CF33-469E-8B78-1151DE88163A}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="41">
     <pivotField axis="axisRow" showAll="0">
@@ -17463,10 +17455,10 @@
     <dataField name="Sum of Harga (Rp)" fld="37" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -17476,7 +17468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17795,13 +17787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CC4891-1112-4327-9429-D7C469766238}">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
+      <selection pane="bottomRight" activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -18188,6 +18180,11 @@
         <v>274</v>
       </c>
     </row>
+    <row r="32" spans="36:36" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AT1" xr:uid="{C34DB500-F446-47FC-BF14-AC6B6643D527}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18195,6 +18192,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417742B3-A188-439E-A56F-4F295ADAB045}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB82CE6-10AC-414D-80FB-C195EDD9E7B2}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -19239,7 +19248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB94CF-4EDA-4B31-B718-A93FFCA0D0AF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -19311,7 +19320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9234210-006F-4E21-93D2-BC5ECD2D245B}">
   <dimension ref="A1:AO143"/>
   <sheetViews>
@@ -30653,7 +30662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C76FD76-F22C-4F67-8C29-0FD1B818D5E2}">
   <dimension ref="A1:AU211"/>
   <sheetViews>
@@ -49186,7 +49195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570BB5AF-6415-4558-A282-37DA13F0CD61}">
   <dimension ref="A1:AU19"/>
   <sheetViews>
